--- a/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.2_KS_Holdout_seed_999/metrics/Trial_134__Reeval_LHS_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.2_KS_Holdout_seed_999/metrics/Trial_134__Reeval_LHS_Modell_1.2.xlsx
@@ -5915,7 +5915,7 @@
                   <c:v>49.98785400390625</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>68.91354370117188</c:v>
+                  <c:v>68.91353607177734</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>49.98785400390625</c:v>
@@ -6017,7 +6017,7 @@
                   <c:v>49.98785400390625</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>61.87393951416016</c:v>
+                  <c:v>61.87394332885742</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>63.18683242797852</c:v>
@@ -6059,7 +6059,7 @@
                   <c:v>49.98785400390625</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>60.241455078125</c:v>
+                  <c:v>60.24145889282227</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>49.98785400390625</c:v>
@@ -6074,7 +6074,7 @@
                   <c:v>49.98785400390625</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>74.06063842773438</c:v>
+                  <c:v>74.06063079833984</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>69.85312652587891</c:v>
@@ -7211,7 +7211,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>68.91354370117188</v>
+        <v>68.91353607177734</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>88.3647</v>
       </c>
       <c r="F50">
-        <v>61.87393951416016</v>
+        <v>61.87394332885742</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>93.4151</v>
       </c>
       <c r="F64">
-        <v>60.241455078125</v>
+        <v>60.24145889282227</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8271,7 +8271,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>74.06063842773438</v>
+        <v>74.06063079833984</v>
       </c>
     </row>
     <row r="70" spans="1:6">
